--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2777559.863248094</v>
+        <v>2775018.231654414</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.72734108435057</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>133.8333590606436</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>114.5149250787125</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>29.00708539155859</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>180.5002358401064</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537573</v>
+        <v>122.1363258044045</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>288.187444284377</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>349.2299344537542</v>
       </c>
       <c r="G5" t="n">
-        <v>12.53823624078099</v>
+        <v>12.53823624078101</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537542</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537573</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>158.4542576985225</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277719</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419584</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611843</v>
+        <v>8.321493021612184</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>107.6431636299452</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>154.4236315138798</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>114.887691839429</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057031</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95.13977195581585</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>263.9946303209722</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1187,13 +1187,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>49.11254969570136</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,7 +1348,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>121.0573374602124</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337117</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417093</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>182.2818575038123</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957368</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766838</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.0280580960838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312946</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148099</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201465</v>
+        <v>730.1757415093708</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201465</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201465</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="V2" t="n">
-        <v>603.4370373477792</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>603.4370373477792</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312946</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.0172523312946</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843273</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>607.2476507906783</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843273</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843273</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843273</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843273</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843273</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843273</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843273</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843273</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.5624574060956</v>
+        <v>44.30213322740519</v>
       </c>
       <c r="C4" t="n">
-        <v>185.5624574060956</v>
+        <v>44.30213322740519</v>
       </c>
       <c r="D4" t="n">
-        <v>185.5624574060956</v>
+        <v>44.30213322740519</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>44.30213322740519</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818524</v>
+        <v>44.30213322740519</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295947</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>587.3641452287303</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846269</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="S4" t="n">
-        <v>564.4020274390649</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="T4" t="n">
-        <v>374.9822424225803</v>
+        <v>423.1417032603752</v>
       </c>
       <c r="U4" t="n">
-        <v>374.9822424225803</v>
+        <v>423.1417032603752</v>
       </c>
       <c r="V4" t="n">
-        <v>185.5624574060956</v>
+        <v>423.1417032603752</v>
       </c>
       <c r="W4" t="n">
-        <v>185.5624574060956</v>
+        <v>233.7219182438902</v>
       </c>
       <c r="X4" t="n">
-        <v>185.5624574060956</v>
+        <v>44.30213322740519</v>
       </c>
       <c r="Y4" t="n">
-        <v>185.5624574060956</v>
+        <v>44.30213322740519</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.6472091672799</v>
+        <v>707.6667019626882</v>
       </c>
       <c r="C5" t="n">
-        <v>338.6472091672799</v>
+        <v>707.6667019626882</v>
       </c>
       <c r="D5" t="n">
-        <v>338.6472091672799</v>
+        <v>707.6667019626882</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720204</v>
+        <v>707.6667019626882</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799856</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630059</v>
+        <v>342.2443073217436</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630059</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630059</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874677</v>
+        <v>80.99020340874517</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620548</v>
+        <v>211.2396305620518</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458691</v>
+        <v>409.7273242458645</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973867</v>
+        <v>662.2525653973802</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365802</v>
+        <v>923.4777373365717</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477539</v>
+        <v>1156.809998477529</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169742</v>
+        <v>1321.45268416973</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815029</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815029</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815029</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815029</v>
+        <v>1183.79423757699</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815029</v>
+        <v>1183.79423757699</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815029</v>
+        <v>1183.79423757699</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815029</v>
+        <v>831.0367280277433</v>
       </c>
       <c r="X5" t="n">
-        <v>1044.16222826578</v>
+        <v>831.0367280277433</v>
       </c>
       <c r="Y5" t="n">
-        <v>691.4047187165297</v>
+        <v>831.0367280277433</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>695.95658500472</v>
+        <v>423.3520700478214</v>
       </c>
       <c r="C6" t="n">
-        <v>521.503555723593</v>
+        <v>423.3520700478214</v>
       </c>
       <c r="D6" t="n">
-        <v>372.5691460623417</v>
+        <v>423.3520700478214</v>
       </c>
       <c r="E6" t="n">
-        <v>213.3316910568862</v>
+        <v>264.1146150423659</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377114</v>
+        <v>264.1146150423659</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377114</v>
+        <v>126.8778690015298</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377114</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630059</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="J6" t="n">
-        <v>165.547966578436</v>
+        <v>165.5479665784352</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100576</v>
+        <v>265.5449014249411</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545706</v>
+        <v>446.3256618694529</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879831</v>
+        <v>676.6451506028641</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668884</v>
+        <v>927.4691557817679</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459973</v>
+        <v>1201.587633459962</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983957</v>
+        <v>1348.579058983946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815029</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308351</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308351</v>
+        <v>1242.848713880421</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308351</v>
+        <v>1046.684307603433</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308351</v>
+        <v>818.5589840356475</v>
       </c>
       <c r="V6" t="n">
-        <v>1279.783720995275</v>
+        <v>583.4068758039048</v>
       </c>
       <c r="W6" t="n">
-        <v>1279.783720995275</v>
+        <v>583.4068758039048</v>
       </c>
       <c r="X6" t="n">
-        <v>1071.932220789742</v>
+        <v>583.4068758039048</v>
       </c>
       <c r="Y6" t="n">
-        <v>864.171922024788</v>
+        <v>583.4068758039048</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>753.3443512934033</v>
+        <v>196.3736667342184</v>
       </c>
       <c r="C7" t="n">
-        <v>584.4081683654964</v>
+        <v>196.3736667342184</v>
       </c>
       <c r="D7" t="n">
-        <v>584.4081683654964</v>
+        <v>196.3736667342184</v>
       </c>
       <c r="E7" t="n">
-        <v>468.3599947903156</v>
+        <v>196.3736667342184</v>
       </c>
       <c r="F7" t="n">
-        <v>321.4700472924052</v>
+        <v>196.3736667342184</v>
       </c>
       <c r="G7" t="n">
-        <v>153.0347753144871</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0347753144871</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807537</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630059</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874695</v>
+        <v>148.5233105874687</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208649</v>
+        <v>358.3569215208634</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014288</v>
+        <v>589.9861665014265</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750266</v>
+        <v>821.5424021750235</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767888</v>
+        <v>1019.405768767884</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612034</v>
+        <v>1165.19137861203</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049274</v>
+        <v>1059.927283950955</v>
       </c>
       <c r="S7" t="n">
-        <v>978.2404632305991</v>
+        <v>1059.927283950955</v>
       </c>
       <c r="T7" t="n">
-        <v>753.3443512934033</v>
+        <v>835.0311720137588</v>
       </c>
       <c r="U7" t="n">
-        <v>753.3443512934033</v>
+        <v>835.0311720137588</v>
       </c>
       <c r="V7" t="n">
-        <v>753.3443512934033</v>
+        <v>580.346683807872</v>
       </c>
       <c r="W7" t="n">
-        <v>753.3443512934033</v>
+        <v>580.346683807872</v>
       </c>
       <c r="X7" t="n">
-        <v>753.3443512934033</v>
+        <v>352.3571329098546</v>
       </c>
       <c r="Y7" t="n">
-        <v>753.3443512934033</v>
+        <v>352.3571329098546</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1980.1279287449</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="C8" t="n">
-        <v>1611.165411804488</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.899713197738</v>
+        <v>628.9126740680931</v>
       </c>
       <c r="E8" t="n">
-        <v>867.1114605994933</v>
+        <v>628.9126740680931</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>621.9671733188896</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1980.1279287449</v>
+        <v>1373.778212738965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4887,16 +4887,16 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1586.837484018233</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1363.859003212968</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1074.740665716806</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1074.740665716806</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1074.740665716806</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>846.7511148187889</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,22 +5057,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703164</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424095</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300738</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476806</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476806</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476806</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570823</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138465</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616863</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1976.192826467915</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.508338262028</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.091168225067</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.30903818352</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400694</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854704</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648817</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138393</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703091</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7664,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944316</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>99.67938739117035</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898907</v>
+        <v>41.92993463898972</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>67.55889958092408</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>67.5588995809203</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112512183</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187251</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>103.9026168854318</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408542</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779574.0714111606</v>
+        <v>779574.0714111605</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.460138034</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442554</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427137</v>
+        <v>178997.5061427098</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.870773119</v>
+        <v>301519.8707731222</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267323</v>
+        <v>41617.52445267233</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019501</v>
+        <v>73739.30240019581</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806963</v>
+        <v>229588.1389806972</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26427,28 +26427,28 @@
         <v>13606.8081118428</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184288</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
-        <v>13606.80811184273</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26457,7 +26457,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002919</v>
+        <v>69851.97930029166</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248454.0912251381</v>
+        <v>-248454.0912251382</v>
       </c>
       <c r="C6" t="n">
-        <v>198921.8357143315</v>
+        <v>198921.8357143342</v>
       </c>
       <c r="D6" t="n">
-        <v>137746.5862271319</v>
+        <v>137746.5862271288</v>
       </c>
       <c r="E6" t="n">
-        <v>43681.16518395868</v>
+        <v>43646.42725852322</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.6068085053</v>
+        <v>551131.8688830698</v>
       </c>
       <c r="G6" t="n">
-        <v>551166.6068085048</v>
+        <v>551131.8688830691</v>
       </c>
       <c r="H6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="I6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="J6" t="n">
-        <v>502101.6620799605</v>
+        <v>502066.9241545249</v>
       </c>
       <c r="K6" t="n">
-        <v>509549.0823558323</v>
+        <v>509514.3444303968</v>
       </c>
       <c r="L6" t="n">
-        <v>477427.3044083102</v>
+        <v>477392.5664828735</v>
       </c>
       <c r="M6" t="n">
-        <v>418559.3130795784</v>
+        <v>418524.5751541426</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.6068085051</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.606808505</v>
+        <v>551131.8688830695</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955717</v>
+        <v>687.6696919955691</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537573</v>
+        <v>349.2299344537542</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826673</v>
+        <v>139.1997510826643</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219674</v>
+        <v>246.39520012197</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-4.313673211405653e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874375</v>
+        <v>161.7043472874341</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462814</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874375</v>
+        <v>161.7043472874341</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462814</v>
+        <v>291.3548976462846</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874375</v>
+        <v>161.7043472874341</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462814</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>139.0484721057025</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988665</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>193.9188994094913</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>58.19357390960327</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482486</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098424</v>
       </c>
     </row>
     <row r="4">
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>137.9948498111556</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>26.28001995538983</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378029</v>
+        <v>36.19408632377998</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027088</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271703</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972325</v>
+        <v>260.5975158590761</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>93.74292578788476</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>57.64611128795724</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397886</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908711</v>
+        <v>103.8974541908715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>146.0239967969025</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.01103426365881433</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.00800420229626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.078925951344843</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277713</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419604</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>125.15742351948</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>25.40834866805747</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>31.54627080714015</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057358</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>311.7362737858956</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>147.5530724519817</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>145.5499106660361</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>97.52731589188241</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5.078366212864626e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,22 +28324,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>2.145904760419312e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28567,19 +28567,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-5.30377657959311e-13</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354055</v>
+        <v>2.764501274354044</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597847</v>
+        <v>28.31194867597837</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795348</v>
+        <v>106.5784353795344</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342077</v>
+        <v>234.6335900342068</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776149</v>
+        <v>351.6549289776136</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526279</v>
+        <v>436.2590348526263</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904218</v>
+        <v>485.42223439042</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361803</v>
+        <v>493.2768736361784</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893222</v>
+        <v>465.7873640893204</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787063</v>
+        <v>397.5387388787049</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909017</v>
+        <v>298.5350369909006</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751431</v>
+        <v>173.6556031751424</v>
       </c>
       <c r="S5" t="n">
-        <v>62.9960727893431</v>
+        <v>62.99607278934285</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848488</v>
+        <v>12.10160432848484</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483244</v>
+        <v>0.2211601019483235</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782928</v>
+        <v>1.479138582782922</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371933</v>
+        <v>14.28536473371928</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721923</v>
+        <v>50.92648190721904</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233643</v>
+        <v>139.7461588233637</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698204</v>
+        <v>238.8484438698195</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117055</v>
+        <v>321.1612085117043</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375866</v>
+        <v>374.7799821375851</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721265</v>
+        <v>384.699293072125</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536206</v>
+        <v>351.9246960536192</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122944</v>
+        <v>282.4505948122933</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022559</v>
+        <v>188.8107426022551</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103129</v>
+        <v>91.83634113103095</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020042</v>
+        <v>27.47435043020031</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603115</v>
+        <v>5.961966480603093</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729793</v>
+        <v>0.09731174886729756</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319883</v>
+        <v>1.240060100319879</v>
       </c>
       <c r="H7" t="n">
-        <v>11.0252616192077</v>
+        <v>11.02526161920766</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871068</v>
+        <v>37.29198919871054</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261574</v>
+        <v>87.67224909261542</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098919</v>
+        <v>144.0724371098913</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966489</v>
+        <v>184.3631170966482</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619613</v>
+        <v>194.3850573619606</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698601</v>
+        <v>189.7630151698594</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433959</v>
+        <v>175.2768585433953</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968702</v>
+        <v>149.9796324968696</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913313</v>
+        <v>103.8381234913309</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983765</v>
+        <v>55.75761141983744</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648378</v>
+        <v>21.6108655664837</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457682</v>
+        <v>5.298438610457661</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563008</v>
+        <v>0.06763964183562982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007823</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005466</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>123.3445726863787</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.5876855075214</v>
+        <v>53.58768550752052</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326344</v>
+        <v>131.565077932633</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826407</v>
+        <v>200.492619882639</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631491</v>
+        <v>255.0760011631473</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395894</v>
+        <v>263.8638100395875</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676355</v>
+        <v>235.6891526676337</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234368</v>
+        <v>166.3057431234353</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.2293471164522</v>
+        <v>76.22934711645107</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.9995674971064</v>
+        <v>138.9995674971059</v>
       </c>
       <c r="K6" t="n">
-        <v>168.5659044763855</v>
+        <v>101.0070048954605</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318313</v>
+        <v>182.6068287318301</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155682</v>
+        <v>232.6459482155668</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887932</v>
+        <v>253.3575809887917</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091761</v>
+        <v>276.8873511900951</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979642</v>
+        <v>148.4761873979631</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623434</v>
+        <v>48.82896851623363</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.802945284009</v>
+        <v>121.8029452840085</v>
       </c>
       <c r="L7" t="n">
-        <v>211.953142356965</v>
+        <v>211.9531423569643</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238019</v>
+        <v>233.9689343238012</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490887</v>
+        <v>233.895187549088</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574356</v>
+        <v>199.8619864574349</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617637</v>
+        <v>147.2581917617631</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963695</v>
+        <v>17.67608023963655</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010502</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563379</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
